--- a/_python_sources/p1/huy_project_test6/data/ex.xlsx
+++ b/_python_sources/p1/huy_project_test6/data/ex.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PACTRA!$B$4:$S$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PACTRA DEC'!$A$5:$S$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PACTRA JAN'!$A$5:$S$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PACTRA JAN'!$A$1:$S$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PACTRA NOV'!$A$4:$R$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -82,6 +82,36 @@
     <author>samie</author>
   </authors>
   <commentList>
+    <comment ref="S12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">thu hộ
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">thu hộ
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S16" authorId="0">
       <text>
         <r>
@@ -97,37 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">thu hộ
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">thu hộ
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S21" authorId="0">
+    <comment ref="S17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="0">
+    <comment ref="S18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="123">
   <si>
     <t>MAWB</t>
   </si>
@@ -387,9 +387,6 @@
     <t>PACTRA DEC-2020</t>
   </si>
   <si>
-    <t>PACTRA JAN-2021</t>
-  </si>
-  <si>
     <t>MAX-AE21010001</t>
   </si>
   <si>
@@ -529,6 +526,12 @@
   </si>
   <si>
     <t>ATL</t>
+  </si>
+  <si>
+    <t>A/F1</t>
+  </si>
+  <si>
+    <t>SCC1</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -930,6 +933,12 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -945,12 +954,7 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1093,49 +1097,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1905000" y="209550"/>
-          <a:ext cx="7181851" cy="1158554"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15554</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3038475" y="209550"/>
           <a:ext cx="7181851" cy="1158554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1468,24 +1429,24 @@
   <sheetData>
     <row r="1" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S3" s="3"/>
@@ -1515,14 +1476,14 @@
       <c r="H4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="37" t="s">
         <v>9</v>
       </c>
@@ -2268,24 +2229,24 @@
   <sheetData>
     <row r="1" spans="1:18" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R3" s="3"/>
@@ -2312,14 +2273,14 @@
       <c r="G4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="37" t="s">
         <v>9</v>
       </c>
@@ -3061,27 +3022,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" s="3"/>
@@ -3109,14 +3070,14 @@
       <c r="H5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="68"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="37" t="s">
         <v>9</v>
       </c>
@@ -4138,10 +4099,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,152 +4128,357 @@
     <col min="19" max="19" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="C2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="32">
+        <v>44200</v>
+      </c>
+      <c r="G2" s="30">
+        <v>4944</v>
+      </c>
+      <c r="H2" s="30">
+        <v>5703.5</v>
+      </c>
+      <c r="I2" s="46">
+        <v>7.35</v>
+      </c>
+      <c r="J2" s="48">
+        <f>+H2*I2</f>
+        <v>41920.724999999999</v>
+      </c>
+      <c r="K2" s="47">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L2" s="46">
+        <f>+K2*G2</f>
+        <v>84.048000000000002</v>
+      </c>
+      <c r="M2" s="49"/>
+      <c r="N2" s="46">
+        <v>20</v>
+      </c>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49">
+        <v>8398368</v>
+      </c>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="50">
+        <f>+J2+L2+N2*1.1</f>
+        <v>42026.773000000001</v>
+      </c>
+      <c r="S2" s="52">
+        <f>(M2+O2+P2+Q2)*1.1</f>
+        <v>9238204.8000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="32">
+        <v>44201</v>
+      </c>
+      <c r="G3" s="30">
+        <v>4574</v>
+      </c>
+      <c r="H3" s="30">
+        <v>5227.2</v>
+      </c>
+      <c r="I3" s="46">
+        <v>6.85</v>
+      </c>
+      <c r="J3" s="48">
+        <f t="shared" ref="J3:J16" si="0">+H3*I3</f>
+        <v>35806.32</v>
+      </c>
+      <c r="K3" s="47">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L3" s="46">
+        <f t="shared" ref="L3:L26" si="1">+K3*G3</f>
+        <v>77.75800000000001</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="46">
+        <v>20</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49">
+        <v>8074056</v>
+      </c>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50">
+        <f>+J3+L3+N3*1.1</f>
+        <v>35906.078000000001</v>
+      </c>
+      <c r="S3" s="52">
+        <f t="shared" ref="S3:S26" si="2">(M3+O3+P3+Q3)*1.1</f>
+        <v>8881461.6000000015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B4" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="32">
+        <v>44201</v>
+      </c>
+      <c r="G4" s="30">
+        <v>6317</v>
+      </c>
+      <c r="H4" s="30">
+        <v>7260</v>
+      </c>
+      <c r="I4" s="46">
+        <v>7</v>
+      </c>
+      <c r="J4" s="48">
+        <f t="shared" si="0"/>
+        <v>50820</v>
+      </c>
+      <c r="K4" s="47">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L4" s="46">
+        <f t="shared" si="1"/>
+        <v>107.38900000000001</v>
+      </c>
+      <c r="M4" s="49"/>
+      <c r="N4" s="46">
+        <v>20</v>
+      </c>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49">
+        <v>6736752</v>
+      </c>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="50">
+        <f>+J4+L4+N4*1.1</f>
+        <v>50949.389000000003</v>
+      </c>
+      <c r="S4" s="52">
+        <f t="shared" si="2"/>
+        <v>7410427.2000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>29</v>
+      <c r="B5" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="32">
+        <v>44197</v>
+      </c>
+      <c r="G5" s="30">
+        <v>55.5</v>
+      </c>
+      <c r="H5" s="30">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46">
+        <v>5.4</v>
+      </c>
+      <c r="J5" s="48">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="K5" s="47">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L5" s="46">
+        <f>+K5*G5</f>
+        <v>0.94350000000000012</v>
+      </c>
+      <c r="M5" s="49">
+        <v>200000</v>
+      </c>
+      <c r="N5" s="46">
+        <v>20</v>
+      </c>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="50">
+        <f t="shared" ref="R5:R26" si="3">+J5+L5+N5*1.1</f>
+        <v>373.94349999999997</v>
+      </c>
+      <c r="S5" s="52">
+        <f t="shared" si="2"/>
+        <v>220000.00000000003</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="32">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="G6" s="30">
-        <v>4944</v>
+        <v>202.5</v>
       </c>
       <c r="H6" s="30">
-        <v>5703.5</v>
+        <v>442</v>
       </c>
       <c r="I6" s="46">
-        <v>7.35</v>
+        <v>5.4</v>
       </c>
       <c r="J6" s="48">
-        <f>+H6*I6</f>
-        <v>41920.724999999999</v>
+        <f t="shared" si="0"/>
+        <v>2386.8000000000002</v>
       </c>
       <c r="K6" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L6" s="46">
-        <f>+K6*G6</f>
-        <v>84.048000000000002</v>
-      </c>
-      <c r="M6" s="49"/>
+        <f t="shared" si="1"/>
+        <v>3.4425000000000003</v>
+      </c>
+      <c r="M6" s="49">
+        <v>200000</v>
+      </c>
       <c r="N6" s="46">
         <v>20</v>
       </c>
       <c r="O6" s="49"/>
-      <c r="P6" s="49">
-        <v>8398368</v>
-      </c>
+      <c r="P6" s="49"/>
       <c r="Q6" s="51"/>
       <c r="R6" s="50">
-        <f>+J6+L6+N6*1.1</f>
-        <v>42026.773000000001</v>
+        <f t="shared" si="3"/>
+        <v>2412.2425000000003</v>
       </c>
       <c r="S6" s="52">
-        <f>(M6+O6+P6+Q6)*1.1</f>
-        <v>9238204.8000000007</v>
+        <f t="shared" si="2"/>
+        <v>220000.00000000003</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>24</v>
@@ -4324,24 +4490,24 @@
         <v>44201</v>
       </c>
       <c r="G7" s="30">
-        <v>4574</v>
+        <v>1706</v>
       </c>
       <c r="H7" s="30">
-        <v>5227.2</v>
+        <v>2379.5</v>
       </c>
       <c r="I7" s="46">
         <v>6.85</v>
       </c>
       <c r="J7" s="48">
-        <f t="shared" ref="J7:J20" si="0">+H7*I7</f>
-        <v>35806.32</v>
+        <f t="shared" si="0"/>
+        <v>16299.574999999999</v>
       </c>
       <c r="K7" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L7" s="46">
-        <f t="shared" ref="L7:L30" si="1">+K7*G7</f>
-        <v>77.75800000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.002000000000002</v>
       </c>
       <c r="M7" s="49"/>
       <c r="N7" s="46">
@@ -4349,198 +4515,196 @@
       </c>
       <c r="O7" s="49"/>
       <c r="P7" s="49">
-        <v>8074056</v>
+        <v>2430516</v>
       </c>
       <c r="Q7" s="51"/>
       <c r="R7" s="50">
-        <f>+J7+L7+N7*1.1</f>
-        <v>35906.078000000001</v>
+        <f t="shared" si="3"/>
+        <v>16350.576999999999</v>
       </c>
       <c r="S7" s="52">
-        <f t="shared" ref="S7:S30" si="2">(M7+O7+P7+Q7)*1.1</f>
-        <v>8881461.6000000015</v>
+        <f t="shared" si="2"/>
+        <v>2673567.6</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="32">
-        <v>44201</v>
+        <v>44217</v>
       </c>
       <c r="G8" s="30">
-        <v>6317</v>
+        <v>160.5</v>
       </c>
       <c r="H8" s="30">
-        <v>7260</v>
+        <v>309</v>
       </c>
       <c r="I8" s="46">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J8" s="48">
         <f t="shared" si="0"/>
-        <v>50820</v>
+        <v>1915.8</v>
       </c>
       <c r="K8" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L8" s="46">
         <f t="shared" si="1"/>
-        <v>107.38900000000001</v>
+        <v>2.7285000000000004</v>
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="46">
         <v>20</v>
       </c>
       <c r="O8" s="49"/>
-      <c r="P8" s="49">
-        <v>6736752</v>
-      </c>
+      <c r="P8" s="49"/>
       <c r="Q8" s="51"/>
       <c r="R8" s="50">
-        <f>+J8+L8+N8*1.1</f>
-        <v>50949.389000000003</v>
+        <f t="shared" si="3"/>
+        <v>1940.5284999999999</v>
       </c>
       <c r="S8" s="52">
         <f t="shared" si="2"/>
-        <v>7410427.2000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="32">
-        <v>44197</v>
+        <v>44206</v>
       </c>
       <c r="G9" s="30">
-        <v>55.5</v>
+        <v>2949</v>
       </c>
       <c r="H9" s="30">
-        <v>65</v>
+        <v>3545.3</v>
       </c>
       <c r="I9" s="46">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
       <c r="J9" s="48">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>16131.115</v>
       </c>
       <c r="K9" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L9" s="46">
-        <f>+K9*G9</f>
-        <v>0.94350000000000012</v>
-      </c>
-      <c r="M9" s="49">
-        <v>200000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>50.133000000000003</v>
+      </c>
+      <c r="M9" s="49"/>
       <c r="N9" s="46">
         <v>20</v>
       </c>
       <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="P9" s="49">
+        <v>3114114</v>
+      </c>
       <c r="Q9" s="51"/>
       <c r="R9" s="50">
-        <f t="shared" ref="R9:R30" si="3">+J9+L9+N9*1.1</f>
-        <v>373.94349999999997</v>
+        <f t="shared" si="3"/>
+        <v>16203.248</v>
       </c>
       <c r="S9" s="52">
         <f t="shared" si="2"/>
-        <v>220000.00000000003</v>
+        <v>3425525.4000000004</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="32">
-        <v>44197</v>
+        <v>44206</v>
       </c>
       <c r="G10" s="30">
-        <v>202.5</v>
+        <v>1587</v>
       </c>
       <c r="H10" s="30">
-        <v>442</v>
+        <v>2140</v>
       </c>
       <c r="I10" s="46">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
       <c r="J10" s="48">
         <f t="shared" si="0"/>
-        <v>2386.8000000000002</v>
+        <v>9737</v>
       </c>
       <c r="K10" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L10" s="46">
         <f t="shared" si="1"/>
-        <v>3.4425000000000003</v>
-      </c>
-      <c r="M10" s="49">
-        <v>200000</v>
-      </c>
+        <v>26.979000000000003</v>
+      </c>
+      <c r="M10" s="49"/>
       <c r="N10" s="46">
         <v>20</v>
       </c>
       <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
+      <c r="P10" s="49">
+        <v>1675872</v>
+      </c>
       <c r="Q10" s="51"/>
       <c r="R10" s="50">
         <f t="shared" si="3"/>
-        <v>2412.2425000000003</v>
+        <v>9785.9789999999994</v>
       </c>
       <c r="S10" s="52">
         <f t="shared" si="2"/>
-        <v>220000.00000000003</v>
+        <v>1843459.2000000002</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>24</v>
@@ -4549,27 +4713,27 @@
         <v>26</v>
       </c>
       <c r="F11" s="32">
-        <v>44201</v>
+        <v>44213</v>
       </c>
       <c r="G11" s="30">
-        <v>1706</v>
+        <v>2052</v>
       </c>
       <c r="H11" s="30">
-        <v>2379.5</v>
+        <v>2793.5</v>
       </c>
       <c r="I11" s="46">
-        <v>6.85</v>
+        <v>7.5</v>
       </c>
       <c r="J11" s="48">
         <f t="shared" si="0"/>
-        <v>16299.574999999999</v>
+        <v>20951.25</v>
       </c>
       <c r="K11" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L11" s="46">
         <f t="shared" si="1"/>
-        <v>29.002000000000002</v>
+        <v>34.884</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="46">
@@ -4577,82 +4741,84 @@
       </c>
       <c r="O11" s="49"/>
       <c r="P11" s="49">
-        <v>2430516</v>
+        <v>2166912</v>
       </c>
       <c r="Q11" s="51"/>
       <c r="R11" s="50">
         <f t="shared" si="3"/>
-        <v>16350.576999999999</v>
+        <v>21008.133999999998</v>
       </c>
       <c r="S11" s="52">
         <f t="shared" si="2"/>
-        <v>2673567.6</v>
+        <v>2383603.2000000002</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="32">
-        <v>44217</v>
+        <v>44208</v>
       </c>
       <c r="G12" s="30">
-        <v>160.5</v>
+        <v>245</v>
       </c>
       <c r="H12" s="30">
-        <v>309</v>
+        <v>461</v>
       </c>
       <c r="I12" s="46">
-        <v>6.2</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J12" s="48">
         <f t="shared" si="0"/>
-        <v>1915.8</v>
+        <v>2005.35</v>
       </c>
       <c r="K12" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L12" s="46">
         <f t="shared" si="1"/>
-        <v>2.7285000000000004</v>
+        <v>4.165</v>
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="46">
         <v>20</v>
       </c>
       <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
+      <c r="P12" s="64">
+        <v>518400</v>
+      </c>
       <c r="Q12" s="51"/>
       <c r="R12" s="50">
         <f t="shared" si="3"/>
-        <v>1940.5284999999999</v>
-      </c>
-      <c r="S12" s="52">
+        <v>2031.5149999999999</v>
+      </c>
+      <c r="S12" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>570240</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>24</v>
@@ -4661,55 +4827,53 @@
         <v>26</v>
       </c>
       <c r="F13" s="32">
-        <v>44206</v>
+        <v>44208</v>
       </c>
       <c r="G13" s="30">
-        <v>2949</v>
+        <v>295</v>
       </c>
       <c r="H13" s="30">
-        <v>3545.3</v>
+        <v>295</v>
       </c>
       <c r="I13" s="46">
-        <v>4.55</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J13" s="48">
         <f t="shared" si="0"/>
-        <v>16131.115</v>
+        <v>1283.25</v>
       </c>
       <c r="K13" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L13" s="46">
         <f t="shared" si="1"/>
-        <v>50.133000000000003</v>
+        <v>5.0150000000000006</v>
       </c>
       <c r="M13" s="49"/>
       <c r="N13" s="46">
         <v>20</v>
       </c>
       <c r="O13" s="49"/>
-      <c r="P13" s="49">
-        <v>3114114</v>
-      </c>
+      <c r="P13" s="49"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="50">
         <f t="shared" si="3"/>
-        <v>16203.248</v>
+        <v>1310.2650000000001</v>
       </c>
       <c r="S13" s="52">
         <f t="shared" si="2"/>
-        <v>3425525.4000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>95</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>24</v>
@@ -4718,55 +4882,55 @@
         <v>26</v>
       </c>
       <c r="F14" s="32">
-        <v>44206</v>
+        <v>44209</v>
       </c>
       <c r="G14" s="30">
-        <v>1587</v>
+        <v>1802</v>
       </c>
       <c r="H14" s="30">
-        <v>2140</v>
+        <v>1865</v>
       </c>
       <c r="I14" s="46">
-        <v>4.55</v>
+        <v>6.2</v>
       </c>
       <c r="J14" s="48">
         <f t="shared" si="0"/>
-        <v>9737</v>
+        <v>11563</v>
       </c>
       <c r="K14" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L14" s="46">
         <f t="shared" si="1"/>
-        <v>26.979000000000003</v>
+        <v>30.634000000000004</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="46">
         <v>20</v>
       </c>
       <c r="O14" s="49"/>
-      <c r="P14" s="49">
-        <v>1675872</v>
+      <c r="P14" s="64">
+        <v>1729920</v>
       </c>
       <c r="Q14" s="51"/>
       <c r="R14" s="50">
         <f t="shared" si="3"/>
-        <v>9785.9789999999994</v>
-      </c>
-      <c r="S14" s="52">
+        <v>11615.634</v>
+      </c>
+      <c r="S14" s="64">
         <f t="shared" si="2"/>
-        <v>1843459.2000000002</v>
+        <v>1902912.0000000002</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>24</v>
@@ -4778,24 +4942,24 @@
         <v>44213</v>
       </c>
       <c r="G15" s="30">
-        <v>2052</v>
+        <v>5435</v>
       </c>
       <c r="H15" s="30">
-        <v>2793.5</v>
+        <v>6227.5</v>
       </c>
       <c r="I15" s="46">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="J15" s="48">
         <f t="shared" si="0"/>
-        <v>20951.25</v>
+        <v>44838</v>
       </c>
       <c r="K15" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L15" s="46">
         <f t="shared" si="1"/>
-        <v>34.884</v>
+        <v>92.39500000000001</v>
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="46">
@@ -4803,27 +4967,27 @@
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="49">
-        <v>2166912</v>
+        <v>5739360</v>
       </c>
       <c r="Q15" s="51"/>
       <c r="R15" s="50">
         <f t="shared" si="3"/>
-        <v>21008.133999999998</v>
+        <v>44952.394999999997</v>
       </c>
       <c r="S15" s="52">
         <f t="shared" si="2"/>
-        <v>2383603.2000000002</v>
+        <v>6313296.0000000009</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>24</v>
@@ -4832,55 +4996,56 @@
         <v>26</v>
       </c>
       <c r="F16" s="32">
-        <v>44208</v>
+        <v>44211</v>
       </c>
       <c r="G16" s="30">
-        <v>245</v>
+        <v>2492</v>
       </c>
       <c r="H16" s="30">
-        <v>461</v>
+        <v>2823</v>
       </c>
       <c r="I16" s="46">
-        <v>4.3499999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="J16" s="48">
         <f t="shared" si="0"/>
-        <v>2005.35</v>
+        <v>17502.600000000002</v>
       </c>
       <c r="K16" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L16" s="46">
         <f t="shared" si="1"/>
-        <v>4.165</v>
+        <v>42.364000000000004</v>
       </c>
       <c r="M16" s="49"/>
       <c r="N16" s="46">
         <v>20</v>
       </c>
       <c r="O16" s="49"/>
-      <c r="P16" s="69">
-        <v>518400</v>
+      <c r="P16" s="64">
+        <f>2392320+214312</f>
+        <v>2606632</v>
       </c>
       <c r="Q16" s="51"/>
       <c r="R16" s="50">
         <f t="shared" si="3"/>
-        <v>2031.5149999999999</v>
-      </c>
-      <c r="S16" s="69">
+        <v>17566.964000000004</v>
+      </c>
+      <c r="S16" s="64">
         <f t="shared" si="2"/>
-        <v>570240</v>
+        <v>2867295.2</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>24</v>
@@ -4889,110 +5054,113 @@
         <v>26</v>
       </c>
       <c r="F17" s="32">
-        <v>44208</v>
+        <v>44211</v>
       </c>
       <c r="G17" s="30">
-        <v>295</v>
+        <v>2668</v>
       </c>
       <c r="H17" s="30">
-        <v>295</v>
+        <v>3085</v>
       </c>
       <c r="I17" s="46">
-        <v>4.3499999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="J17" s="48">
-        <f t="shared" si="0"/>
-        <v>1283.25</v>
+        <f t="shared" ref="J17:J26" si="4">+H17*I17</f>
+        <v>13265.5</v>
       </c>
       <c r="K17" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L17" s="46">
         <f t="shared" si="1"/>
-        <v>5.0150000000000006</v>
+        <v>45.356000000000002</v>
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="46">
         <v>20</v>
       </c>
       <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="P17" s="64">
+        <f>2561280+229448</f>
+        <v>2790728</v>
+      </c>
       <c r="Q17" s="51"/>
       <c r="R17" s="50">
         <f t="shared" si="3"/>
-        <v>1310.2650000000001</v>
-      </c>
-      <c r="S17" s="52">
+        <v>13332.856</v>
+      </c>
+      <c r="S17" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3069800.8000000003</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>103</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="32">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="G18" s="30">
-        <v>1802</v>
+        <v>185</v>
       </c>
       <c r="H18" s="30">
-        <v>1865</v>
+        <v>222</v>
       </c>
       <c r="I18" s="46">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="J18" s="48">
-        <f t="shared" si="0"/>
-        <v>11563</v>
+        <f t="shared" si="4"/>
+        <v>1709.4</v>
       </c>
       <c r="K18" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L18" s="46">
         <f t="shared" si="1"/>
-        <v>30.634000000000004</v>
+        <v>3.145</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="46">
         <v>20</v>
       </c>
       <c r="O18" s="49"/>
-      <c r="P18" s="69">
-        <v>1729920</v>
+      <c r="P18" s="64">
+        <v>177600</v>
       </c>
       <c r="Q18" s="51"/>
       <c r="R18" s="50">
         <f t="shared" si="3"/>
-        <v>11615.634</v>
-      </c>
-      <c r="S18" s="69">
+        <v>1734.5450000000001</v>
+      </c>
+      <c r="S18" s="64">
         <f t="shared" si="2"/>
-        <v>1902912.0000000002</v>
+        <v>195360.00000000003</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>24</v>
@@ -5001,27 +5169,27 @@
         <v>26</v>
       </c>
       <c r="F19" s="32">
-        <v>44213</v>
+        <v>44221</v>
       </c>
       <c r="G19" s="30">
-        <v>5435</v>
+        <v>2646</v>
       </c>
       <c r="H19" s="30">
-        <v>6227.5</v>
+        <v>3477</v>
       </c>
       <c r="I19" s="46">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J19" s="48">
-        <f t="shared" si="0"/>
-        <v>44838</v>
+        <f t="shared" si="4"/>
+        <v>25382.1</v>
       </c>
       <c r="K19" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L19" s="46">
         <f t="shared" si="1"/>
-        <v>92.39500000000001</v>
+        <v>44.982000000000006</v>
       </c>
       <c r="M19" s="49"/>
       <c r="N19" s="46">
@@ -5029,27 +5197,27 @@
       </c>
       <c r="O19" s="49"/>
       <c r="P19" s="49">
-        <v>5739360</v>
+        <v>2794176</v>
       </c>
       <c r="Q19" s="51"/>
       <c r="R19" s="50">
         <f t="shared" si="3"/>
-        <v>44952.394999999997</v>
+        <v>25449.081999999999</v>
       </c>
       <c r="S19" s="52">
         <f t="shared" si="2"/>
-        <v>6313296.0000000009</v>
+        <v>3073593.6</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>24</v>
@@ -5058,56 +5226,55 @@
         <v>26</v>
       </c>
       <c r="F20" s="32">
-        <v>44211</v>
+        <v>44221</v>
       </c>
       <c r="G20" s="30">
-        <v>2492</v>
+        <v>3782</v>
       </c>
       <c r="H20" s="30">
-        <v>2823</v>
+        <v>4356</v>
       </c>
       <c r="I20" s="46">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="J20" s="48">
-        <f t="shared" si="0"/>
-        <v>17502.600000000002</v>
+        <f t="shared" si="4"/>
+        <v>31798.799999999999</v>
       </c>
       <c r="K20" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L20" s="46">
         <f t="shared" si="1"/>
-        <v>42.364000000000004</v>
+        <v>64.294000000000011</v>
       </c>
       <c r="M20" s="49"/>
       <c r="N20" s="46">
         <v>20</v>
       </c>
       <c r="O20" s="49"/>
-      <c r="P20" s="69">
-        <f>2392320+214312</f>
-        <v>2606632</v>
+      <c r="P20" s="49">
+        <v>3993792</v>
       </c>
       <c r="Q20" s="51"/>
       <c r="R20" s="50">
         <f t="shared" si="3"/>
-        <v>17566.964000000004</v>
-      </c>
-      <c r="S20" s="69">
+        <v>31885.094000000001</v>
+      </c>
+      <c r="S20" s="52">
         <f t="shared" si="2"/>
-        <v>2867295.2</v>
+        <v>4393171.2</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>24</v>
@@ -5116,113 +5283,112 @@
         <v>26</v>
       </c>
       <c r="F21" s="32">
-        <v>44211</v>
+        <v>44222</v>
       </c>
       <c r="G21" s="30">
-        <v>2668</v>
+        <v>2424</v>
       </c>
       <c r="H21" s="30">
-        <v>3085</v>
+        <v>2843.5</v>
       </c>
       <c r="I21" s="46">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="J21" s="48">
-        <f t="shared" ref="J21:J30" si="4">+H21*I21</f>
-        <v>13265.5</v>
+        <f t="shared" si="4"/>
+        <v>20757.55</v>
       </c>
       <c r="K21" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L21" s="46">
         <f t="shared" si="1"/>
-        <v>45.356000000000002</v>
+        <v>41.208000000000006</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="46">
         <v>20</v>
       </c>
       <c r="O21" s="49"/>
-      <c r="P21" s="69">
-        <f>2561280+229448</f>
-        <v>2790728</v>
+      <c r="P21" s="49">
+        <v>2559744</v>
       </c>
       <c r="Q21" s="51"/>
       <c r="R21" s="50">
         <f t="shared" si="3"/>
-        <v>13332.856</v>
-      </c>
-      <c r="S21" s="69">
+        <v>20820.757999999998</v>
+      </c>
+      <c r="S21" s="52">
         <f t="shared" si="2"/>
-        <v>3069800.8000000003</v>
+        <v>2815718.4000000004</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="32">
-        <v>44208</v>
+        <v>44222</v>
       </c>
       <c r="G22" s="30">
-        <v>185</v>
+        <v>5022</v>
       </c>
       <c r="H22" s="30">
-        <v>222</v>
+        <v>5812.5</v>
       </c>
       <c r="I22" s="46">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="J22" s="48">
         <f t="shared" si="4"/>
-        <v>1709.4</v>
+        <v>42431.25</v>
       </c>
       <c r="K22" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L22" s="46">
         <f t="shared" si="1"/>
-        <v>3.145</v>
+        <v>85.374000000000009</v>
       </c>
       <c r="M22" s="49"/>
       <c r="N22" s="46">
         <v>20</v>
       </c>
       <c r="O22" s="49"/>
-      <c r="P22" s="69">
-        <v>177600</v>
+      <c r="P22" s="49">
+        <v>5780523</v>
       </c>
       <c r="Q22" s="51"/>
       <c r="R22" s="50">
         <f t="shared" si="3"/>
-        <v>1734.5450000000001</v>
-      </c>
-      <c r="S22" s="69">
+        <v>42538.624000000003</v>
+      </c>
+      <c r="S22" s="52">
         <f t="shared" si="2"/>
-        <v>195360.00000000003</v>
+        <v>6358575.3000000007</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>24</v>
@@ -5231,27 +5397,27 @@
         <v>26</v>
       </c>
       <c r="F23" s="32">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="G23" s="30">
-        <v>2646</v>
+        <v>4877</v>
       </c>
       <c r="H23" s="30">
-        <v>3477</v>
+        <v>5558</v>
       </c>
       <c r="I23" s="46">
         <v>7.3</v>
       </c>
       <c r="J23" s="48">
         <f t="shared" si="4"/>
-        <v>25382.1</v>
+        <v>40573.4</v>
       </c>
       <c r="K23" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L23" s="46">
         <f t="shared" si="1"/>
-        <v>44.982000000000006</v>
+        <v>82.909000000000006</v>
       </c>
       <c r="M23" s="49"/>
       <c r="N23" s="46">
@@ -5259,27 +5425,27 @@
       </c>
       <c r="O23" s="49"/>
       <c r="P23" s="49">
-        <v>2794176</v>
+        <v>5150112</v>
       </c>
       <c r="Q23" s="51"/>
       <c r="R23" s="50">
         <f t="shared" si="3"/>
-        <v>25449.081999999999</v>
+        <v>40678.309000000001</v>
       </c>
       <c r="S23" s="52">
         <f t="shared" si="2"/>
-        <v>3073593.6</v>
+        <v>5665123.2000000002</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>115</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>24</v>
@@ -5288,448 +5454,230 @@
         <v>26</v>
       </c>
       <c r="F24" s="32">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="G24" s="30">
-        <v>3782</v>
+        <v>2752</v>
       </c>
       <c r="H24" s="30">
-        <v>4356</v>
+        <v>2752</v>
       </c>
       <c r="I24" s="46">
-        <v>7.3</v>
+        <v>7.42</v>
       </c>
       <c r="J24" s="48">
         <f t="shared" si="4"/>
-        <v>31798.799999999999</v>
+        <v>20419.84</v>
       </c>
       <c r="K24" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L24" s="46">
         <f t="shared" si="1"/>
-        <v>64.294000000000011</v>
+        <v>46.784000000000006</v>
       </c>
       <c r="M24" s="49"/>
       <c r="N24" s="46">
         <v>20</v>
       </c>
       <c r="O24" s="49"/>
-      <c r="P24" s="49">
-        <v>3993792</v>
+      <c r="P24" s="64">
+        <v>2641920</v>
       </c>
       <c r="Q24" s="51"/>
       <c r="R24" s="50">
         <f t="shared" si="3"/>
-        <v>31885.094000000001</v>
-      </c>
-      <c r="S24" s="52">
+        <v>20488.624</v>
+      </c>
+      <c r="S24" s="64">
         <f t="shared" si="2"/>
-        <v>4393171.2</v>
+        <v>2906112.0000000005</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F25" s="32">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="G25" s="30">
-        <v>2424</v>
+        <v>230</v>
       </c>
       <c r="H25" s="30">
-        <v>2843.5</v>
+        <v>230</v>
       </c>
       <c r="I25" s="46">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="J25" s="48">
         <f t="shared" si="4"/>
-        <v>20757.55</v>
+        <v>2047</v>
       </c>
       <c r="K25" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L25" s="46">
         <f t="shared" si="1"/>
-        <v>41.208000000000006</v>
+        <v>3.91</v>
       </c>
       <c r="M25" s="49"/>
       <c r="N25" s="46">
         <v>20</v>
       </c>
       <c r="O25" s="49"/>
-      <c r="P25" s="49">
-        <v>2559744</v>
-      </c>
+      <c r="P25" s="49"/>
       <c r="Q25" s="51"/>
       <c r="R25" s="50">
         <f t="shared" si="3"/>
-        <v>20820.757999999998</v>
+        <v>2072.91</v>
       </c>
       <c r="S25" s="52">
         <f t="shared" si="2"/>
-        <v>2815718.4000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="32">
-        <v>44222</v>
+        <v>44207</v>
       </c>
       <c r="G26" s="30">
-        <v>5022</v>
+        <v>5.5</v>
       </c>
       <c r="H26" s="30">
-        <v>5812.5</v>
+        <v>7.5</v>
       </c>
       <c r="I26" s="46">
-        <v>7.3</v>
+        <v>26.5</v>
       </c>
       <c r="J26" s="48">
         <f t="shared" si="4"/>
-        <v>42431.25</v>
+        <v>198.75</v>
       </c>
       <c r="K26" s="47">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L26" s="46">
         <f t="shared" si="1"/>
-        <v>85.374000000000009</v>
-      </c>
-      <c r="M26" s="49"/>
+        <v>9.35E-2</v>
+      </c>
+      <c r="M26" s="46"/>
       <c r="N26" s="46">
         <v>20</v>
       </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49">
-        <v>5780523</v>
-      </c>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
       <c r="Q26" s="51"/>
       <c r="R26" s="50">
         <f t="shared" si="3"/>
-        <v>42538.624000000003</v>
+        <v>220.84350000000001</v>
       </c>
       <c r="S26" s="52">
         <f t="shared" si="2"/>
-        <v>6358575.3000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>22</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="32">
-        <v>44222</v>
-      </c>
-      <c r="G27" s="30">
-        <v>4877</v>
-      </c>
-      <c r="H27" s="30">
-        <v>5558</v>
-      </c>
-      <c r="I27" s="46">
-        <v>7.3</v>
-      </c>
-      <c r="J27" s="48">
-        <f t="shared" si="4"/>
-        <v>40573.4</v>
-      </c>
-      <c r="K27" s="47">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L27" s="46">
-        <f t="shared" si="1"/>
-        <v>82.909000000000006</v>
-      </c>
-      <c r="M27" s="49"/>
-      <c r="N27" s="46">
-        <v>20</v>
-      </c>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49">
-        <v>5150112</v>
-      </c>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="50">
-        <f t="shared" si="3"/>
-        <v>40678.309000000001</v>
-      </c>
-      <c r="S27" s="52">
-        <f t="shared" si="2"/>
-        <v>5665123.2000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>23</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="32">
-        <v>44225</v>
-      </c>
-      <c r="G28" s="30">
-        <v>2752</v>
-      </c>
-      <c r="H28" s="30">
-        <v>2752</v>
-      </c>
-      <c r="I28" s="46">
-        <v>7.42</v>
-      </c>
-      <c r="J28" s="48">
-        <f t="shared" si="4"/>
-        <v>20419.84</v>
-      </c>
-      <c r="K28" s="47">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L28" s="46">
-        <f t="shared" si="1"/>
-        <v>46.784000000000006</v>
-      </c>
-      <c r="M28" s="49"/>
-      <c r="N28" s="46">
-        <v>20</v>
-      </c>
-      <c r="O28" s="49"/>
-      <c r="P28" s="69">
-        <v>2641920</v>
-      </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="50">
-        <f t="shared" si="3"/>
-        <v>20488.624</v>
-      </c>
-      <c r="S28" s="69">
-        <f t="shared" si="2"/>
-        <v>2906112.0000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
-        <v>24</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="32">
-        <v>44224</v>
-      </c>
-      <c r="G29" s="30">
-        <v>230</v>
-      </c>
-      <c r="H29" s="30">
-        <v>230</v>
-      </c>
-      <c r="I29" s="46">
-        <v>8.9</v>
-      </c>
-      <c r="J29" s="48">
-        <f t="shared" si="4"/>
-        <v>2047</v>
-      </c>
-      <c r="K29" s="47">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L29" s="46">
-        <f t="shared" si="1"/>
-        <v>3.91</v>
-      </c>
-      <c r="M29" s="49"/>
-      <c r="N29" s="46">
-        <v>20</v>
-      </c>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="50">
-        <f t="shared" si="3"/>
-        <v>2072.91</v>
-      </c>
-      <c r="S29" s="52">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
-        <v>25</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="32">
-        <v>44207</v>
-      </c>
-      <c r="G30" s="30">
-        <v>5.5</v>
-      </c>
-      <c r="H30" s="30">
-        <v>7.5</v>
-      </c>
-      <c r="I30" s="46">
-        <v>26.5</v>
-      </c>
-      <c r="J30" s="48">
-        <f t="shared" si="4"/>
-        <v>198.75</v>
-      </c>
-      <c r="K30" s="47">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L30" s="46">
-        <f t="shared" si="1"/>
-        <v>9.35E-2</v>
-      </c>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46">
-        <v>20</v>
-      </c>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="50">
-        <f t="shared" si="3"/>
-        <v>220.84350000000001</v>
-      </c>
-      <c r="S30" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="60">
-        <f>SUM(R6:R30)</f>
+    <row r="27" spans="1:19" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="60">
+        <f>SUM(R2:R26)</f>
         <v>473655.31099999987</v>
       </c>
-      <c r="S31" s="61">
-        <f>SUM(S6:S30)</f>
+      <c r="S27" s="61">
+        <f>SUM(S2:S26)</f>
         <v>76427446.700000018</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R32" s="2">
-        <f>+R31*23220</f>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R28" s="2">
+        <f>+R27*23220</f>
         <v>10998276321.419996</v>
       </c>
-      <c r="S32" s="2">
-        <f>+S31</f>
+      <c r="S28" s="2">
+        <f>+S27</f>
         <v>76427446.700000018</v>
       </c>
     </row>
-    <row r="33" spans="18:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="R33" s="2">
-        <f>+R32+S32</f>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="R29" s="2">
+        <f>+R28+S28</f>
         <v>11074703768.119997</v>
       </c>
-    </row>
-    <row r="34" spans="18:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="R34" s="2">
-        <f>+R33+2176548</f>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="R30" s="2">
+        <f>+R29+2176548</f>
         <v>11076880316.119997</v>
       </c>
+      <c r="S30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:S31">
+  <autoFilter ref="A1:S27">
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
   </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
